--- a/NaOH-SSB.xlsx
+++ b/NaOH-SSB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baluneelu/Desktop/neelu/DIAT/PhD/Pre-synopsis/Excel sheet all biochars/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC4413D-F1D3-E44F-9B99-239FD8577951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048FE83A-8E70-DA42-8A3D-2D997520D27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{AF4BDA3E-11DC-DB43-AB94-C6F39CFC3517}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" activeTab="4" xr2:uid="{AF4BDA3E-11DC-DB43-AB94-C6F39CFC3517}"/>
   </bookViews>
   <sheets>
     <sheet name="Contact time" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,6 @@
     <sheet name="pH " sheetId="6" r:id="rId7"/>
     <sheet name="Regeneration" sheetId="21" r:id="rId8"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -47,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="91">
   <si>
     <t>Concentration (mg/L or ppm)</t>
   </si>
@@ -447,11 +442,20 @@
   <si>
     <t>Equilibrium</t>
   </si>
+  <si>
+    <t>1/ce</t>
+  </si>
+  <si>
+    <t>1/qe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -594,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -629,6 +633,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3029,6 +3034,403 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Isotherm new'!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1/qe</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.6162729658792652E-2"/>
+                  <c:y val="-2.2039953339165936E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Isotherm new'!$K$2:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>65.428586327784359</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.789725209080281</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.308870658164722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.321865228868624</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.923411418242498</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.528896529262511</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39512471196100851</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14307534894558321</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Isotherm new'!$L$2:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>8.0182070591529353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3653825166430185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1520399735880957</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.42227322081826</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0557929501625005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20244964501601911</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13388398055030101</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12483341306101983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5539-DA40-A9E1-A4C4F57BA2FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1051116160"/>
+        <c:axId val="502878992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1051116160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="502878992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="502878992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1051116160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -3538,7 +3940,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -4186,7 +4588,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-GB"/>
@@ -10121,6 +10523,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -13538,6 +13980,522 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -18635,6 +19593,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>277302</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>178033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>118843</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148205</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C477D597-3743-DF88-9FD7-A3D250F65637}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18756,599 +19750,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Dosage"/>
-      <sheetName val="Contact time"/>
-      <sheetName val="pH"/>
-      <sheetName val="Temperature"/>
-      <sheetName val="Low concentration"/>
-      <sheetName val="Adsorption isotherm 13.10.23"/>
-      <sheetName val="Standardization for ct"/>
-      <sheetName val="Linear kinetic models"/>
-      <sheetName val="Non-linear kinetic models"/>
-      <sheetName val="Standardization other studies"/>
-      <sheetName val="pH (2)"/>
-      <sheetName val="Concentration"/>
-      <sheetName val="Concentration 10.10.23"/>
-      <sheetName val="Activation biochar"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="J1" t="str">
-            <v>Adsorption capacity (q) (mg/g)</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="I1" t="str">
-            <v>Removal efficiency (%)</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="K1" t="str">
-            <v>Removal Efficiency (%)</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="O1" t="str">
-            <v>lnkd</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="1">
-          <cell r="I1" t="str">
-            <v>Adsorption capacity (qe) (mg/g)</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="1">
-          <cell r="D1" t="str">
-            <v>Ce/qe</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="G50">
-            <v>-2.2071769130627028</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="G51">
-            <v>-1.5309103617813873</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="G52">
-            <v>-0.94832999933775575</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="G53">
-            <v>-0.45133828225135786</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="G54">
-            <v>-0.11637480327830017</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="G55">
-            <v>1.2940214391650215</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="G56">
-            <v>1.3771523349937931</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="G57">
-            <v>1.3821738926157963</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="D69">
-            <v>-2.2071769130627028</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="D70">
-            <v>-1.5309103617813873</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="D71">
-            <v>-0.94832999933775575</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="D72">
-            <v>-0.45133828225135786</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="D73">
-            <v>-0.11637480327830017</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="D74">
-            <v>1.2940214391650215</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="D75">
-            <v>1.3771523349937931</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="D76">
-            <v>1.3821738926157963</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Adsorption isotherm 13.10.23"/>
-      <sheetName val="Standardization"/>
-      <sheetName val="Contact time BM"/>
-      <sheetName val="Contact time NaOH 4.1.23"/>
-      <sheetName val="Contact time NaOH"/>
-      <sheetName val="Linear kinetic models"/>
-      <sheetName val="Non-linear kinetic models"/>
-      <sheetName val="Dosage"/>
-      <sheetName val="Temperature"/>
-      <sheetName val="pH"/>
-      <sheetName val="pH (2)"/>
-      <sheetName val="Concentration"/>
-      <sheetName val="Concentration 10.10.23"/>
-      <sheetName val="Low concentration"/>
-      <sheetName val="Activation biochar"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="D1" t="str">
-            <v>Ce/qe</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="D3">
-            <v>0.27260255140433914</v>
-          </cell>
-          <cell r="I3">
-            <v>-2.2071769130627028</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="D4">
-            <v>0.15559573705903826</v>
-          </cell>
-          <cell r="I4">
-            <v>-1.5309103617813873</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="D5">
-            <v>0.29069756305590272</v>
-          </cell>
-          <cell r="I5">
-            <v>-0.94832999933775575</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="D6">
-            <v>0.17780932617679432</v>
-          </cell>
-          <cell r="I6">
-            <v>-0.45133828225135786</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="D7">
-            <v>0.12341685355532817</v>
-          </cell>
-          <cell r="I7">
-            <v>-0.11637480327830017</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="D8">
-            <v>0.37083010618394324</v>
-          </cell>
-          <cell r="I8">
-            <v>1.2940214391650215</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="D9">
-            <v>1.522959855204566</v>
-          </cell>
-          <cell r="I9">
-            <v>1.3771523349937931</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>2.7654836348982244</v>
-          </cell>
-          <cell r="I10">
-            <v>1.3821738926157963</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="D32">
-            <v>0.11001078054221058</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="D33">
-            <v>0.21633863122084859</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="D34">
-            <v>0.38738742081156619</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="D35">
-            <v>0.63677539592467258</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="D36">
-            <v>0.89014153280258768</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="D37">
-            <v>3.6474249999650072</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="D38">
-            <v>3.9635985405678134</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="D39">
-            <v>3.9835520359140877</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="G50">
-            <v>-2.2071769130627028</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="G51">
-            <v>-1.5309103617813873</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="G52">
-            <v>-0.94832999933775575</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="G53">
-            <v>-0.45133828225135786</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="G54">
-            <v>-0.11637480327830017</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="G55">
-            <v>1.2940214391650215</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="G56">
-            <v>1.3771523349937931</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="G57">
-            <v>1.3821738926157963</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="D67" t="str">
-            <v>lnqe</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="C69">
-            <v>-3.5069173133091898</v>
-          </cell>
-          <cell r="D69">
-            <v>-2.2071769130627028</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="C70">
-            <v>-3.3914044261873455</v>
-          </cell>
-          <cell r="D70">
-            <v>-1.5309103617813873</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="C71">
-            <v>-2.1838018538108308</v>
-          </cell>
-          <cell r="D71">
-            <v>-0.94832999933775575</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="C72">
-            <v>-2.1783817863414914</v>
-          </cell>
-          <cell r="D72">
-            <v>-0.45133828225135786</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="C73">
-            <v>-2.2085624034914826</v>
-          </cell>
-          <cell r="D73">
-            <v>-0.11637480327830017</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="C74">
-            <v>0.30201018309198219</v>
-          </cell>
-          <cell r="D74">
-            <v>1.2940214391650215</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="C75">
-            <v>1.7978080495341771</v>
-          </cell>
-          <cell r="D75">
-            <v>1.3771523349937931</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="C76">
-            <v>2.3993894254584851</v>
-          </cell>
-          <cell r="D76">
-            <v>1.3821738926157963</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="H83">
-            <v>-3.5613857566250684</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="H84">
-            <v>-2.8572867623890739</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="H85">
-            <v>-2.2282406562274102</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="H86">
-            <v>-1.6593819184355396</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="H87">
-            <v>-1.2456987222910929</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="H88">
-            <v>2.383830116220917</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="H89">
-            <v>5.2838254174513697</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="H90">
-            <v>10.162097449065287</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Dosage NaOH"/>
-      <sheetName val="Temperature NaOH"/>
-      <sheetName val="Standardization"/>
-      <sheetName val="Contact time BM"/>
-      <sheetName val="Contact time BM MME 20.11.23"/>
-      <sheetName val="Contact time BM_new"/>
-      <sheetName val="Contact time NaOH_new"/>
-      <sheetName val="Contact time NaOH"/>
-      <sheetName val="Linear kinetic models"/>
-      <sheetName val="Non-linear kinetic models"/>
-      <sheetName val="Dosage BM"/>
-      <sheetName val="Temperature BM"/>
-      <sheetName val="pH"/>
-      <sheetName val="pH (2)"/>
-      <sheetName val="Low concentration BM"/>
-      <sheetName val="Low concentration BM (2)"/>
-      <sheetName val="Isotherm BM 20.11.23"/>
-      <sheetName val="Isotherm BM 20.11.23 New"/>
-      <sheetName val="Low concentration NaOH"/>
-      <sheetName val="Activation biochar"/>
-      <sheetName val="Adsorption isotherm 13.10.23"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="J1" t="str">
-            <v>Adsorption capacity (q) (mg/g)</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="J3">
-            <v>9.4604447957484012</v>
-          </cell>
-          <cell r="K3">
-            <v>31.534815985828001</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="J4">
-            <v>18.201384230406369</v>
-          </cell>
-          <cell r="K4">
-            <v>60.671280768021226</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="J5">
-            <v>29.581374977362696</v>
-          </cell>
-          <cell r="K5">
-            <v>98.604583257875646</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="J6">
-            <v>29.626664818993042</v>
-          </cell>
-          <cell r="K6">
-            <v>98.755549396643474</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="J7">
-            <v>29.689091357456505</v>
-          </cell>
-          <cell r="K7">
-            <v>98.963637858188335</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="J8">
-            <v>29.92533296379861</v>
-          </cell>
-          <cell r="K8">
-            <v>99.751109879328709</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="M1" t="str">
-            <v>lnkd</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="M3">
-            <v>1.5427162250815674</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="M4">
-            <v>2.0882299418010364</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="M5">
-            <v>4.5085853365226516</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19650,7 +20051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F005283A-0353-2D41-9D56-6F7D1BB63548}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0">
+    <sheetView zoomScale="119" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
@@ -21179,7 +21580,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21241,8 +21642,8 @@
       <c r="A3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="3">
-        <v>8.5000000000000006E-3</v>
+      <c r="B3" s="20">
+        <v>2.497257814455808E-3</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C10" si="0" xml:space="preserve"> D3/(1000*$B$12)</f>
@@ -21253,11 +21654,11 @@
       </c>
       <c r="E3" s="3">
         <f t="shared" ref="E3:E10" si="1" xml:space="preserve"> B3/($B$13*$B$16)</f>
-        <v>1.0860340156982373E-7</v>
+        <v>3.1907140381967583E-8</v>
       </c>
       <c r="F3" s="3">
         <f xml:space="preserve"> E3*1000*$B$12</f>
-        <v>5.2022115385961264E-2</v>
+        <v>1.5283839314366292E-2</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>11</v>
@@ -21278,8 +21679,8 @@
       <c r="A4" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="3">
-        <v>0.01</v>
+      <c r="B4" s="20">
+        <v>3.4189786147757694E-3</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" si="0"/>
@@ -21290,11 +21691,11 @@
       </c>
       <c r="E4" s="3">
         <f t="shared" si="1"/>
-        <v>1.2776870772920437E-7</v>
+        <v>4.368384793636853E-8</v>
       </c>
       <c r="F4" s="3">
         <f t="shared" ref="F4:F10" si="3" xml:space="preserve"> E4*1000*$B$12</f>
-        <v>6.1202488689366182E-2</v>
+        <v>2.0924999999999888E-2</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>11</v>
@@ -21315,8 +21716,8 @@
       <c r="A5" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B5" s="3">
-        <v>1.38E-2</v>
+      <c r="B5" s="20">
+        <v>5.7717614548756608E-3</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
@@ -21327,11 +21728,11 @@
       </c>
       <c r="E5" s="3">
         <f t="shared" si="1"/>
-        <v>1.7632081666630203E-7</v>
+        <v>7.3745050241069573E-8</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="3"/>
-        <v>8.4459434391325333E-2</v>
+        <v>3.5324616515974731E-2</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>11</v>
@@ -21352,8 +21753,8 @@
       <c r="A6" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="3">
-        <v>8.6999999999999994E-3</v>
+      <c r="B6" s="20">
+        <v>7.6631217176362371E-3</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
@@ -21364,11 +21765,11 @@
       </c>
       <c r="E6" s="3">
         <f t="shared" si="1"/>
-        <v>1.111587757244078E-7</v>
+        <v>9.7910715903398299E-8</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" si="3"/>
-        <v>5.324616515974858E-2</v>
+        <v>4.6900212024886818E-2</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>11</v>
@@ -21389,8 +21790,8 @@
       <c r="A7" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="3">
-        <v>7.0000000000000001E-3</v>
+      <c r="B7" s="20">
+        <v>8.6343865217844862E-3</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
@@ -21401,11 +21802,11 @@
       </c>
       <c r="E7" s="3">
         <f t="shared" si="1"/>
-        <v>8.943809541044306E-8</v>
+        <v>1.1032044079228635E-7</v>
       </c>
       <c r="F7" s="3">
         <f t="shared" si="3"/>
-        <v>4.2841742082556332E-2</v>
+        <v>5.2844594343913087E-2</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>11</v>
@@ -21426,8 +21827,8 @@
       <c r="A8" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B8" s="3">
-        <v>2.2700000000000001E-2</v>
+      <c r="B8" s="20">
+        <v>9.8852363318136863E-3</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
@@ -21438,11 +21839,11 @@
       </c>
       <c r="E8" s="3">
         <f t="shared" si="1"/>
-        <v>2.9003496654529395E-7</v>
+        <v>1.2630238717136153E-7</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="3"/>
-        <v>0.13892964932486124</v>
+        <v>6.0500106478953881E-2</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>11</v>
@@ -21463,8 +21864,8 @@
       <c r="A9" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="3">
-        <v>0.61439999999999995</v>
+      <c r="B9" s="20">
+        <v>0.41352019640821602</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
@@ -21475,11 +21876,11 @@
       </c>
       <c r="E9" s="3">
         <f t="shared" si="1"/>
-        <v>7.8501094028823166E-6</v>
+        <v>5.283494111500454E-6</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="3"/>
-        <v>3.7602809050746586</v>
+        <v>2.5308465143498324</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>11</v>
@@ -21500,8 +21901,8 @@
       <c r="A10" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="3">
-        <v>0.1142</v>
+      <c r="B10" s="20">
+        <v>1.1420000000000001</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
@@ -21512,11 +21913,11 @@
       </c>
       <c r="E10" s="3">
         <f t="shared" si="1"/>
-        <v>1.459118642267514E-6</v>
+        <v>1.4591186422675141E-5</v>
       </c>
       <c r="F10" s="3">
         <f t="shared" si="3"/>
-        <v>0.69893242083256191</v>
+        <v>6.9893242083256197</v>
       </c>
       <c r="G10" s="3">
         <v>10</v>
@@ -21589,8 +21990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FF3B4E-DC48-42E3-A8D0-1E8506AAA122}">
   <dimension ref="A1:AC62"/>
   <sheetViews>
-    <sheetView zoomScale="117" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="109" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21624,6 +22025,12 @@
       <c r="I1" t="s">
         <v>12</v>
       </c>
+      <c r="K1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="7"/>
@@ -21657,6 +22064,14 @@
       <c r="I3">
         <v>0.12471616068563372</v>
       </c>
+      <c r="K3">
+        <f xml:space="preserve"> 1/A3</f>
+        <v>65.428586327784359</v>
+      </c>
+      <c r="L3">
+        <f xml:space="preserve"> 1/B3</f>
+        <v>8.0182070591529353</v>
+      </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
@@ -21686,6 +22101,14 @@
       <c r="I4">
         <v>0.22907500000000011</v>
       </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K10" si="3" xml:space="preserve"> 1/A4</f>
+        <v>47.789725209080281</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L10" si="4" xml:space="preserve"> 1/B4</f>
+        <v>4.3653825166430185</v>
+      </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
@@ -21712,6 +22135,14 @@
       <c r="I5">
         <v>0.46467538348402526</v>
       </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>28.308870658164722</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>2.1520399735880957</v>
+      </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
@@ -21738,6 +22169,14 @@
       <c r="I6">
         <v>0.70309978797511319</v>
       </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>21.321865228868624</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>1.42227322081826</v>
+      </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
@@ -21764,6 +22203,14 @@
       <c r="I7">
         <v>0.94715540565608691</v>
       </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>18.923411418242498</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="4"/>
+        <v>1.0557929501625005</v>
+      </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
@@ -21790,6 +22237,14 @@
       <c r="I8">
         <v>4.9394998935210461</v>
       </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>16.528896529262511</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="4"/>
+        <v>0.20244964501601911</v>
+      </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="7">
@@ -21816,6 +22271,14 @@
       <c r="I9">
         <v>7.4691534856501676</v>
       </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>0.39512471196100851</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="4"/>
+        <v>0.13388398055030101</v>
+      </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
@@ -21841,6 +22304,14 @@
       </c>
       <c r="I10">
         <v>8.0106757916743803</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>0.14307534894558321</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="4"/>
+        <v>0.12483341306101983</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.2">
@@ -21986,7 +22457,7 @@
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" ref="A31:A37" si="3" xml:space="preserve"> ($E$28*$E$29*LN((1/C31)+1))^2</f>
+        <f t="shared" ref="A31:A37" si="5" xml:space="preserve"> ($E$28*$E$29*LN((1/C31)+1))^2</f>
         <v>84737057.782797247</v>
       </c>
       <c r="B31">
@@ -21998,7 +22469,7 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>54738503.849676341</v>
       </c>
       <c r="B32">
@@ -22010,7 +22481,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>46142352.063500851</v>
       </c>
       <c r="B33">
@@ -22022,7 +22493,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40035336.430534601</v>
       </c>
       <c r="B34">
@@ -22034,7 +22505,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>7811086.3603159338</v>
       </c>
       <c r="B35">
@@ -22046,7 +22517,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>681296.10408714809</v>
       </c>
       <c r="B36">
@@ -22062,7 +22533,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>109874.61693179437</v>
       </c>
       <c r="B37">
@@ -22131,15 +22602,15 @@
         <v>8.1142191100000005</v>
       </c>
       <c r="D49">
-        <f t="shared" ref="D49:D55" si="4" xml:space="preserve"> LN(A49/($C$48-A49))</f>
+        <f t="shared" ref="D49:D55" si="6" xml:space="preserve"> LN(A49/($C$48-A49))</f>
         <v>-3.6885164488115683</v>
       </c>
       <c r="E49">
-        <f t="shared" ref="E49:E55" si="5" xml:space="preserve"> LN(B49)</f>
+        <f t="shared" ref="E49:E55" si="7" xml:space="preserve"> LN(B49)</f>
         <v>-3.6888794541139385</v>
       </c>
       <c r="F49">
-        <f t="shared" ref="F49:F55" si="6" xml:space="preserve"> D49</f>
+        <f t="shared" ref="F49:F55" si="8" xml:space="preserve"> D49</f>
         <v>-3.6885164488115683</v>
       </c>
     </row>
@@ -22154,15 +22625,15 @@
         <v>8.1142191100000005</v>
       </c>
       <c r="D50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-2.8427336292789476</v>
       </c>
       <c r="E50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.9328294927652325</v>
       </c>
       <c r="F50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2.8427336292789476</v>
       </c>
     </row>
@@ -22177,15 +22648,15 @@
         <v>8.1142191100000005</v>
       </c>
       <c r="D51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-2.3901553948237364</v>
       </c>
       <c r="E51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.6736180466125039</v>
       </c>
       <c r="F51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2.3901553948237364</v>
       </c>
     </row>
@@ -22200,15 +22671,15 @@
         <v>8.1142191100000005</v>
       </c>
       <c r="D52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-2.0621380797397708</v>
       </c>
       <c r="E52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-2.4714839262626116</v>
       </c>
       <c r="F52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-2.0621380797397708</v>
       </c>
     </row>
@@ -22223,15 +22694,15 @@
         <v>8.1142191100000005</v>
       </c>
       <c r="D53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.40163527409488975</v>
       </c>
       <c r="E53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.73614996963744539</v>
       </c>
       <c r="F53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.40163527409488975</v>
       </c>
     </row>
@@ -22246,15 +22717,15 @@
         <v>8.1142191100000005</v>
       </c>
       <c r="D54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2025931992933681</v>
       </c>
       <c r="E54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.92855383742856712</v>
       </c>
       <c r="F54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2025931992933681</v>
       </c>
       <c r="O54" t="s">
@@ -22276,15 +22747,15 @@
         <v>8.1142191100000005</v>
       </c>
       <c r="D55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.3485403453109308</v>
       </c>
       <c r="E55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.9443838717901849</v>
       </c>
       <c r="F55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.3485403453109308</v>
       </c>
       <c r="O55" t="s">
